--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -543,10 +543,10 @@
         <v>0.40623</v>
       </c>
       <c r="I2">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J2">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N2">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O2">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P2">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q2">
-        <v>0.2159527255966667</v>
+        <v>0.15428155006</v>
       </c>
       <c r="R2">
-        <v>1.94357453037</v>
+        <v>1.38853395054</v>
       </c>
       <c r="S2">
-        <v>0.01641010291932891</v>
+        <v>0.006061668742331657</v>
       </c>
       <c r="T2">
-        <v>0.01641010291932891</v>
+        <v>0.006061668742331656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.40623</v>
       </c>
       <c r="I3">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J3">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>16.965439</v>
       </c>
       <c r="O3">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P3">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q3">
         <v>0.7657633649966668</v>
@@ -635,10 +635,10 @@
         <v>6.89187028497</v>
       </c>
       <c r="S3">
-        <v>0.05818984500763761</v>
+        <v>0.03008657776524677</v>
       </c>
       <c r="T3">
-        <v>0.05818984500763762</v>
+        <v>0.03008657776524676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.40623</v>
       </c>
       <c r="I4">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J4">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N4">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O4">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P4">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q4">
-        <v>0.4171802456066667</v>
+        <v>0.06598416458333334</v>
       </c>
       <c r="R4">
-        <v>3.75462221046</v>
+        <v>0.5938574812499999</v>
       </c>
       <c r="S4">
-        <v>0.03170124733272633</v>
+        <v>0.00259249500532053</v>
       </c>
       <c r="T4">
-        <v>0.03170124733272634</v>
+        <v>0.002592495005320529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.40623</v>
       </c>
       <c r="I5">
-        <v>0.1064658135528677</v>
+        <v>0.03919062573893041</v>
       </c>
       <c r="J5">
-        <v>0.1064658135528677</v>
+        <v>0.0391906257389304</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N5">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O5">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P5">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q5">
-        <v>0.002166334316666667</v>
+        <v>0.01145045014666667</v>
       </c>
       <c r="R5">
-        <v>0.01949700885</v>
+        <v>0.10305405132</v>
       </c>
       <c r="S5">
-        <v>0.0001646182931748225</v>
+        <v>0.000449884226031455</v>
       </c>
       <c r="T5">
-        <v>0.0001646182931748225</v>
+        <v>0.000449884226031455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H6">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I6">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J6">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N6">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O6">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P6">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q6">
-        <v>1.812423505139889</v>
+        <v>3.782413696598</v>
       </c>
       <c r="R6">
-        <v>16.311811546259</v>
+        <v>34.041723269382</v>
       </c>
       <c r="S6">
-        <v>0.1377248477442486</v>
+        <v>0.1486097259608725</v>
       </c>
       <c r="T6">
-        <v>0.1377248477442487</v>
+        <v>0.1486097259608725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H7">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I7">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J7">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>16.965439</v>
       </c>
       <c r="O7">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P7">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q7">
-        <v>6.426811786053222</v>
+        <v>18.77368900552234</v>
       </c>
       <c r="R7">
-        <v>57.841306074479</v>
+        <v>168.963201049701</v>
       </c>
       <c r="S7">
-        <v>0.4883691213477203</v>
+        <v>0.7376117479943228</v>
       </c>
       <c r="T7">
-        <v>0.4883691213477203</v>
+        <v>0.7376117479943227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H8">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I8">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J8">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N8">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O8">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P8">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q8">
-        <v>3.501262977480222</v>
+        <v>1.617687972291667</v>
       </c>
       <c r="R8">
-        <v>31.511366797322</v>
+        <v>14.559191750625</v>
       </c>
       <c r="S8">
-        <v>0.2660586276433331</v>
+        <v>0.0635584009408304</v>
       </c>
       <c r="T8">
-        <v>0.2660586276433331</v>
+        <v>0.06355840094083039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.136453666666667</v>
+        <v>3.319753</v>
       </c>
       <c r="H9">
-        <v>3.409361</v>
+        <v>9.959258999999999</v>
       </c>
       <c r="I9">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610696</v>
       </c>
       <c r="J9">
-        <v>0.8935341864471323</v>
+        <v>0.9608093742610695</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N9">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O9">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P9">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q9">
-        <v>0.01818136457722222</v>
+        <v>0.2807227400173333</v>
       </c>
       <c r="R9">
-        <v>0.163632281195</v>
+        <v>2.526504660156</v>
       </c>
       <c r="S9">
-        <v>0.001381589711830259</v>
+        <v>0.01102949936504394</v>
       </c>
       <c r="T9">
-        <v>0.001381589711830259</v>
+        <v>0.01102949936504394</v>
       </c>
     </row>
   </sheetData>
